--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1962.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1962.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.014568136491849</v>
+        <v>1.102621674537659</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.99652087688446</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>9.313411712646484</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.404149293899536</v>
       </c>
       <c r="E1">
-        <v>1.239587504834378</v>
+        <v>1.29102349281311</v>
       </c>
     </row>
   </sheetData>
